--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF46922-DCC1-471D-B9D3-C964D108AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC25C72A-52F5-4BAC-AE1C-7F922D902A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{663E4455-72C3-40E7-8317-962E7EB64AA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{663E4455-72C3-40E7-8317-962E7EB64AA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="見積書" sheetId="3" r:id="rId2"/>
+    <sheet name="納品書" sheetId="4" r:id="rId3"/>
+    <sheet name="請求書" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,17 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>株式会社XYZアシスタント様</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>請求番号：</t>
     <rPh sb="0" eb="4">
@@ -245,6 +237,126 @@
   </si>
   <si>
     <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">様    </t>
+    <rPh sb="0" eb="1">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見　積　書</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積もり申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納　品　書</t>
+    <rPh sb="0" eb="1">
+      <t>オサメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要：</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -252,7 +364,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0&quot;円&quot;"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +409,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +447,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FD5D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -346,6 +498,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -355,51 +516,103 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -412,6 +625,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5FD5D"/>
+      <color rgb="FFF4FD45"/>
+      <color rgb="FFF9FE9A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -731,175 +951,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5623E8-3305-48D9-82F1-446237942B5A}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="5" width="11.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="7.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C17:D17"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9832DA8-14CF-4CE7-892C-0D9B81BA12F0}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -915,14 +966,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -930,9 +981,9 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7">
         <v>15900</v>
       </c>
     </row>
@@ -941,9 +992,9 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7">
         <v>19900</v>
       </c>
     </row>
@@ -952,9 +1003,9 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
         <v>49400</v>
       </c>
     </row>
@@ -963,9 +1014,9 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7">
         <v>9800</v>
       </c>
     </row>
@@ -974,9 +1025,9 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
         <v>14000</v>
       </c>
     </row>
@@ -985,9 +1036,9 @@
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7">
         <v>25400</v>
       </c>
     </row>
@@ -996,9 +1047,9 @@
         <v>3001</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7">
         <v>12300</v>
       </c>
     </row>
@@ -1007,9 +1058,9 @@
         <v>3002</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7">
         <v>26700</v>
       </c>
     </row>
@@ -1018,9 +1069,9 @@
         <v>3003</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="10">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7">
         <v>3500</v>
       </c>
     </row>
@@ -1031,4 +1082,728 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7901E94-008A-4098-80D7-E39CDC73FB1E}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="3" max="5" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="7.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="9">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="9">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7C222-9046-4B26-AD75-F1F7D2551589}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="3" max="5" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="7.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="9">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="C18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="9">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="14">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5623E8-3305-48D9-82F1-446237942B5A}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="3" max="5" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="7.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="D4" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="15">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="29"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="9" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="29"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="9" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="29"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="29"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="29"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="29"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="9">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>